--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>A0</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,306 +463,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>53</v>
-      </c>
-      <c r="E2" t="n">
-        <v>41</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>20140002</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>94</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36</v>
-      </c>
-      <c r="E3" t="n">
-        <v>33</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>20140003</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E4" t="n">
-        <v>46</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34.74</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20140004</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olivia</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>82.38</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>20140005</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Amelia</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>93</v>
-      </c>
-      <c r="D6" t="n">
-        <v>46</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>45</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>20150001</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Isla</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30</v>
-      </c>
-      <c r="E7" t="n">
-        <v>58</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>20150003</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Isabella</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>71</v>
-      </c>
-      <c r="D8" t="n">
-        <v>51</v>
-      </c>
-      <c r="E8" t="n">
-        <v>54</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>58.51000000000001</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>20150005</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ava</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>43</v>
-      </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
-      <c r="E9" t="n">
-        <v>56</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>54.64</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>20150007</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Sophie</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>48</v>
-      </c>
-      <c r="D10" t="n">
-        <v>92</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>52.35999999999999</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>20150009</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Chloe</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>91</v>
-      </c>
-      <c r="D11" t="n">
-        <v>64</v>
-      </c>
-      <c r="E11" t="n">
-        <v>39</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>63.96000000000001</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,216 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>20201016</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>namju</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>20201017</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>juju</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20201017</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>juju</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>20201017</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>juju</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20201017</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>juju</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20201017</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>juju</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>20201017</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>juju</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,100 +422,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
+      <c r="A1" t="n">
+        <v>20140001</v>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>midtern</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>final</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>homework</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>attendance</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1" t="n">
+        <v>53</v>
+      </c>
+      <c r="E1" t="n">
+        <v>41</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" t="n">
+        <v>40.39</v>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20201016</v>
+        <v>20140002</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>namju</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>20.4</v>
+        <v>53.02</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20201017</v>
+        <v>20140003</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>juju</t>
+          <t>Lily</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>20.4</v>
+        <v>34.74</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -525,87 +513,87 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20201017</v>
+        <v>20140004</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>juju</t>
+          <t>Olivia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>23.4</v>
+        <v>82.38</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20201017</v>
+        <v>20140005</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>juju</t>
+          <t>Amelia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>26.4</v>
+        <v>45</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20201017</v>
+        <v>20150001</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>juju</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>14.4</v>
+        <v>33.02</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -615,61 +603,121 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20201017</v>
+        <v>20150003</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>juju</t>
+          <t>Isabella</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>20.4</v>
+        <v>58.51000000000001</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>20201017</v>
+        <v>20150005</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>juju</t>
+          <t>Ava</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>30.9</v>
+        <v>54.64</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20150007</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sophie</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>48</v>
+      </c>
+      <c r="D9" t="n">
+        <v>92</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>52.35999999999999</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>20150009</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chloe</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>39</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>63.96000000000001</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A0</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -413,315 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>20140001</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>23</v>
-      </c>
-      <c r="D1" t="n">
-        <v>53</v>
-      </c>
-      <c r="E1" t="n">
-        <v>41</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>40.39</v>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>C+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>20140002</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Emily</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>94</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36</v>
-      </c>
-      <c r="E2" t="n">
-        <v>33</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>53.02</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>20140003</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lily</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>46</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34.74</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>20140004</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Olivia</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="n">
-        <v>72</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>82.38</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A+</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>20140005</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Amelia</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>93</v>
-      </c>
-      <c r="D5" t="n">
-        <v>46</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>45</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>20150001</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Isla</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" t="n">
-        <v>58</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33.02</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>C0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>20150003</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Isabella</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>71</v>
-      </c>
-      <c r="D7" t="n">
-        <v>51</v>
-      </c>
-      <c r="E7" t="n">
-        <v>54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>58.51000000000001</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>20150005</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ava</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E8" t="n">
-        <v>56</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>54.64</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B+</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>20150007</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sophie</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>48</v>
-      </c>
-      <c r="D9" t="n">
-        <v>92</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>52.35999999999999</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>B0</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>20150009</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chloe</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>91</v>
-      </c>
-      <c r="D10" t="n">
-        <v>64</v>
-      </c>
-      <c r="E10" t="n">
-        <v>39</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>63.96000000000001</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>